--- a/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444881E5-8F37-4FB4-9D7F-94E04741E510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEA9703-6326-4C58-86A2-FEDBB205CEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27240" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PatrolPool|++" sheetId="2" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEA9703-6326-4C58-86A2-FEDBB205CEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1972F7-5711-4E21-BD4C-93BC2070D774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PatrolPool|++" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -152,22 +152,25 @@
     <t>别名1</t>
   </si>
   <si>
-    <t>500;1;1</t>
+    <t>529;1;1</t>
   </si>
   <si>
     <t>别名2</t>
   </si>
   <si>
-    <t>520;3;1|521;2;1|522;1;1|523;3;1|524;2;1|525;1;1|526;3;1|527;2;1|528;1;1|529;3;1|530;2;1|531;1;1|521;1;1</t>
+    <t>524;3;2|523;3;2|522;3;3|527;3;3|530;3;2</t>
   </si>
   <si>
     <t>别名3</t>
   </si>
   <si>
-    <t>512;3;1|513;2;1|514;1;1|515;3;1|516;2;1|517;1;1|518;3;1|519;2;1|501;1;1|502;3;1|503;2;1|504;1;1</t>
-  </si>
-  <si>
-    <t>515;1;1|501;1;1|502;1;1|503;1;1|504;1;1|505;1;1|506;1;1|507;1;1|508;1;1|509;1;1|510;1;1|511;1;1</t>
+    <t>524;3;12|523;3;12|522;3;15|527;3;15|530;3;12|521;2;30|520;2;24|525;2;30|528;2;6|533;2;6|534;2;6</t>
+  </si>
+  <si>
+    <t>别名4</t>
+  </si>
+  <si>
+    <t>524;3;2|523;3;2|522;3;2|527;3;2|530;3;2|521;2;3|520;2;3|525;2;3|528;2;1|533;2;1|534;2;1|531;1;6|532;1;6|526;1;6</t>
   </si>
 </sst>
 </file>
@@ -205,6 +208,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -216,14 +227,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -284,10 +287,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -638,16 +641,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="102" customWidth="1"/>
+    <col min="4" max="4" width="71.875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
@@ -655,7 +658,7 @@
     <col min="9" max="9" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -713,7 +716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -742,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -769,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -786,72 +789,74 @@
         <v>1</v>
       </c>
       <c r="F5" s="9">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="G5" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5" s="9">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I5" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="9">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>529</v>
+      </c>
       <c r="G6" s="10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F7" s="9">
-        <v>21</v>
+        <v>529</v>
       </c>
       <c r="G7" s="10">
         <v>8</v>
       </c>
       <c r="H7" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="10"/>
       <c r="E8" s="12"/>
@@ -860,7 +865,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="D9" s="10"/>
@@ -870,7 +875,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="10"/>
       <c r="D10" s="10"/>
@@ -880,27 +885,29 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="D13" s="12"/>
@@ -909,8 +916,9 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="D14" s="12"/>
@@ -920,7 +928,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="D15" s="12"/>
@@ -930,7 +938,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="E16" s="12"/>

--- a/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1972F7-5711-4E21-BD4C-93BC2070D774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="PatrolPool|++" sheetId="2" r:id="rId1"/>
@@ -20,20 +14,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>lishuo233</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>李硕:</t>
@@ -42,7 +35,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,14 +46,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>DELL:</t>
@@ -70,7 +61,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -83,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +139,18 @@
     <t>aint</t>
   </si>
   <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>ID_OR_NULL:PatrolPool</t>
+  </si>
+  <si>
+    <t>1:{ID:Quest}</t>
+  </si>
+  <si>
+    <t>ID_OR_NULL:Quest</t>
+  </si>
+  <si>
     <t>别名1</t>
   </si>
   <si>
@@ -158,26 +160,32 @@
     <t>别名2</t>
   </si>
   <si>
-    <t>524;3;2|523;3;2|522;3;3|527;3;3|530;3;2</t>
+    <t>524;1;2|523;1;2|522;1;3|527;1;3|530;1;2</t>
   </si>
   <si>
     <t>别名3</t>
   </si>
   <si>
-    <t>524;3;12|523;3;12|522;3;15|527;3;15|530;3;12|521;2;30|520;2;24|525;2;30|528;2;6|533;2;6|534;2;6</t>
+    <t>524;1;12|523;1;12|522;1;15|527;1;15|530;1;12|521;2;30|520;2;24|525;2;30|528;2;6|533;2;6|534;2;6</t>
   </si>
   <si>
     <t>别名4</t>
   </si>
   <si>
-    <t>524;3;2|523;3;2|522;3;2|527;3;2|530;3;2|521;2;3|520;2;3|525;2;3|528;2;1|533;2;1|534;2;1|531;1;6|532;1;6|526;1;6</t>
+    <t>524;1;2|523;1;2|522;1;2|527;1;2|530;1;2|521;2;3|520;2;3|525;2;3|528;2;1|533;2;1|534;2;1|531;3;6|532;3;6|526;3;6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +198,6 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -198,12 +205,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -211,32 +217,159 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,12 +402,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -282,38 +607,283 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -335,19 +905,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -634,20 +1248,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="71.875" customWidth="1"/>
@@ -658,7 +1271,7 @@
     <col min="9" max="9" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" ht="24" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +1300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -716,7 +1329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -745,460 +1358,479 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I5" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+    <row r="6" spans="1:9">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F6" s="10">
         <v>529</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G6" s="10">
         <v>3</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I6" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+    <row r="7" spans="1:9">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10">
         <v>9</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="10">
         <v>529</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="11">
         <v>6</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H7" s="12">
         <v>1</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I7" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    <row r="8" spans="1:9">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="B8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10">
         <v>16</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="10">
         <v>529</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="11">
         <v>8</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H8" s="12">
         <v>1</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I8" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="8"/>
+      <c r="B10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView windowWidth="17325" windowHeight="25140"/>
   </bookViews>
   <sheets>
     <sheet name="PatrolPool|++" sheetId="2" r:id="rId1"/>
@@ -160,19 +160,19 @@
     <t>别名2</t>
   </si>
   <si>
-    <t>524;1;2|523;1;2|522;1;3|527;1;3|530;1;2</t>
+    <t>521;1;2|522;1;2|523;1;2|527;1;2|530;1;2|532;1;2</t>
   </si>
   <si>
     <t>别名3</t>
   </si>
   <si>
-    <t>524;1;12|523;1;12|522;1;15|527;1;15|530;1;12|521;2;30|520;2;24|525;2;30|528;2;6|533;2;6|534;2;6</t>
+    <t>521;1;2|522;1;2|523;1;2|527;1;2|530;1;2|532;1;2|520;2;3|526;2;3|528;2;3|524;2;1|533;2;1|534;2;1</t>
   </si>
   <si>
     <t>别名4</t>
   </si>
   <si>
-    <t>524;1;2|523;1;2|522;1;2|527;1;2|530;1;2|521;2;3|520;2;3|525;2;3|528;2;1|533;2;1|534;2;1|531;3;6|532;3;6|526;3;6</t>
+    <t>521;1;2|522;1;2|523;1;2|527;1;2|530;1;2|532;1;2|520;2;3|526;2;3|528;2;3|524;2;1|533;2;1|534;2;1|525;3;4|531;3;4</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,12 +553,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,25 +827,25 @@
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1257,7 +1251,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1424,10 +1418,10 @@
         <v>529</v>
       </c>
       <c r="G6" s="10">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10">
         <v>3</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
       </c>
       <c r="I6" s="10">
         <v>3</v>
@@ -1447,16 +1441,16 @@
         <v>30</v>
       </c>
       <c r="E7" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F7" s="10">
-        <v>529</v>
+        <v>21</v>
       </c>
       <c r="G7" s="11">
         <v>6</v>
       </c>
       <c r="H7" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="13">
         <v>3</v>
@@ -1473,16 +1467,16 @@
         <v>32</v>
       </c>
       <c r="E8" s="10">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F8" s="10">
-        <v>529</v>
+        <v>31</v>
       </c>
       <c r="G8" s="11">
         <v>8</v>
       </c>
       <c r="H8" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="13">
         <v>3</v>
@@ -1521,144 +1515,84 @@
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:4">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="13"/>

--- a/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89D5D89-A2A9-4899-ADA3-A299FD60B498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="25140"/>
+    <workbookView xWindow="45" yWindow="9495" windowWidth="17790" windowHeight="18405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PatrolPool|++" sheetId="2" r:id="rId1"/>
@@ -14,13 +20,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>lishuo233</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -142,15 +148,9 @@
     <t>LimitState</t>
   </si>
   <si>
-    <t>ID_OR_NULL:PatrolPool</t>
-  </si>
-  <si>
     <t>1:{ID:Quest}</t>
   </si>
   <si>
-    <t>ID_OR_NULL:Quest</t>
-  </si>
-  <si>
     <t>别名1</t>
   </si>
   <si>
@@ -173,19 +173,21 @@
   </si>
   <si>
     <t>521;1;2|522;1;2|523;1;2|527;1;2|530;1;2|532;1;2|520;2;3|526;2;3|528;2;3|524;2;1|533;2;1|534;2;1|525;3;4|531;3;4</t>
+  </si>
+  <si>
+    <t>ID:PatrolPool$Null</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID:Quest$Null</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,7 +207,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -217,144 +219,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,8 +233,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,7 +281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,188 +291,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -601,280 +300,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -898,64 +355,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1242,19 +658,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="71.875" customWidth="1"/>
@@ -1265,7 +682,7 @@
     <col min="9" max="9" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:9">
+    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1352,37 +769,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>24</v>
+      <c r="F4" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -1398,18 +815,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9">
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -1427,18 +844,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -1456,15 +873,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -1482,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="E9" s="13"/>
@@ -1491,7 +908,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="D10" s="11"/>
@@ -1501,7 +918,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="D11" s="11"/>
@@ -1511,90 +928,75 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="E27" s="13"/>
@@ -1603,7 +1005,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="E28" s="13"/>
@@ -1612,7 +1014,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="D29" s="13"/>
@@ -1622,7 +1024,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="D30" s="13"/>
@@ -1632,7 +1034,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="D31" s="13"/>
@@ -1642,7 +1044,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="D32" s="13"/>
@@ -1652,7 +1054,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="D33" s="13"/>
@@ -1662,7 +1064,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="D34" s="13"/>
@@ -1672,7 +1074,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="D35" s="13"/>
@@ -1682,7 +1084,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="D36" s="13"/>
@@ -1692,7 +1094,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="D37" s="13"/>
@@ -1702,7 +1104,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="D38" s="13"/>
@@ -1712,7 +1114,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="D39" s="13"/>
@@ -1722,7 +1124,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="D40" s="13"/>
@@ -1732,7 +1134,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="D41" s="13"/>
@@ -1742,7 +1144,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="D42" s="13"/>
@@ -1752,7 +1154,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="D43" s="13"/>
@@ -1763,8 +1165,8 @@
       <c r="I43" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89D5D89-A2A9-4899-ADA3-A299FD60B498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="9495" windowWidth="17790" windowHeight="18405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17325" windowHeight="25140"/>
   </bookViews>
   <sheets>
     <sheet name="PatrolPool|++" sheetId="2" r:id="rId1"/>
@@ -20,13 +14,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>lishuo233</author>
     <author>DELL</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -148,9 +142,15 @@
     <t>LimitState</t>
   </si>
   <si>
+    <t>ID_OR_NULL:PatrolPool</t>
+  </si>
+  <si>
     <t>1:{ID:Quest}</t>
   </si>
   <si>
+    <t>ID_OR_NULL:Quest</t>
+  </si>
+  <si>
     <t>别名1</t>
   </si>
   <si>
@@ -173,21 +173,19 @@
   </si>
   <si>
     <t>521;1;2|522;1;2|523;1;2|527;1;2|530;1;2|532;1;2|520;2;3|526;2;3|528;2;3|524;2;1|533;2;1|534;2;1|525;3;4|531;3;4</t>
-  </si>
-  <si>
-    <t>ID:PatrolPool$Null</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID:Quest$Null</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,7 +205,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -219,7 +217,144 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,22 +368,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,7 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,8 +412,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -300,38 +601,280 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -355,23 +898,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -658,20 +1242,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="71.875" customWidth="1"/>
@@ -682,7 +1265,7 @@
     <col min="9" max="9" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" ht="24" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +1294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -740,7 +1323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -769,37 +1352,37 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="14" t="s">
-        <v>31</v>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="14" t="s">
-        <v>32</v>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -815,18 +1398,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9">
         <v>3</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -844,18 +1427,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -873,15 +1456,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -899,7 +1482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="E9" s="13"/>
@@ -908,7 +1491,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="D10" s="11"/>
@@ -918,7 +1501,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="D11" s="11"/>
@@ -928,75 +1511,90 @@
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="8"/>
       <c r="B12" s="11"/>
       <c r="D12" s="11"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="8"/>
       <c r="B13" s="11"/>
       <c r="D13" s="11"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="D14" s="13"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="E27" s="13"/>
@@ -1005,7 +1603,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="E28" s="13"/>
@@ -1014,7 +1612,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="D29" s="13"/>
@@ -1024,7 +1622,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="D30" s="13"/>
@@ -1034,7 +1632,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="D31" s="13"/>
@@ -1044,7 +1642,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="D32" s="13"/>
@@ -1054,7 +1652,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="D33" s="13"/>
@@ -1064,7 +1662,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="D34" s="13"/>
@@ -1074,7 +1672,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="D35" s="13"/>
@@ -1084,7 +1682,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="D36" s="13"/>
@@ -1094,7 +1692,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="D37" s="13"/>
@@ -1104,7 +1702,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="D38" s="13"/>
@@ -1114,7 +1712,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="D39" s="13"/>
@@ -1124,7 +1722,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="D40" s="13"/>
@@ -1134,7 +1732,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="D41" s="13"/>
@@ -1144,7 +1742,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="D42" s="13"/>
@@ -1154,7 +1752,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="D43" s="13"/>
@@ -1165,8 +1763,8 @@
       <c r="I43" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/018_巡逻任务表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89D5D89-A2A9-4899-ADA3-A299FD60B498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0873AFF4-4A44-42BE-A4EC-73189D7247F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="9495" windowWidth="17790" windowHeight="18405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PatrolPool|++" sheetId="2" r:id="rId1"/>
@@ -175,11 +175,11 @@
     <t>521;1;2|522;1;2|523;1;2|527;1;2|530;1;2|532;1;2|520;2;3|526;2;3|528;2;3|524;2;1|533;2;1|534;2;1|525;3;4|531;3;4</t>
   </si>
   <si>
-    <t>ID:PatrolPool$Null</t>
+    <t>ID:Quest|Null</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ID:Quest$Null</t>
+    <t>ID:PatrolPool|Null</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +668,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -775,14 +775,14 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
